--- a/storage/app/xlsx/seed_cidades_pb.xlsx
+++ b/storage/app/xlsx/seed_cidades_pb.xlsx
@@ -23,7 +23,7 @@
     <t>AGUA BRANQUENSE</t>
   </si>
   <si>
-    <t>272ab0d9-df10-4e48-bbba-690d7a6b65da</t>
+    <t>fe3e1624-4fa7-466d-90f7-fe47a7f5263e</t>
   </si>
   <si>
     <t>AGUIAR</t>

--- a/storage/app/xlsx/seed_cidades_pb.xlsx
+++ b/storage/app/xlsx/seed_cidades_pb.xlsx
@@ -23,7 +23,7 @@
     <t>AGUA BRANQUENSE</t>
   </si>
   <si>
-    <t>fe3e1624-4fa7-466d-90f7-fe47a7f5263e</t>
+    <t>8936300f-0985-4fdd-8b96-bc75827c3f38</t>
   </si>
   <si>
     <t>AGUIAR</t>

--- a/storage/app/xlsx/seed_cidades_pb.xlsx
+++ b/storage/app/xlsx/seed_cidades_pb.xlsx
@@ -23,7 +23,7 @@
     <t>AGUA BRANQUENSE</t>
   </si>
   <si>
-    <t>8936300f-0985-4fdd-8b96-bc75827c3f38</t>
+    <t>8aae349d-e0dd-4bcf-93da-e5df13861f90</t>
   </si>
   <si>
     <t>AGUIAR</t>

--- a/storage/app/xlsx/seed_cidades_pb.xlsx
+++ b/storage/app/xlsx/seed_cidades_pb.xlsx
@@ -23,7 +23,7 @@
     <t>AGUA BRANQUENSE</t>
   </si>
   <si>
-    <t>8aae349d-e0dd-4bcf-93da-e5df13861f90</t>
+    <t>5ecbae00-0e95-46e0-9fc2-65d7fb550365</t>
   </si>
   <si>
     <t>AGUIAR</t>

--- a/storage/app/xlsx/seed_cidades_pb.xlsx
+++ b/storage/app/xlsx/seed_cidades_pb.xlsx
@@ -23,7 +23,7 @@
     <t>AGUA BRANQUENSE</t>
   </si>
   <si>
-    <t>5ecbae00-0e95-46e0-9fc2-65d7fb550365</t>
+    <t>bc70cb9b-b3c9-4e1f-adc0-3998689b0a8f</t>
   </si>
   <si>
     <t>AGUIAR</t>

--- a/storage/app/xlsx/seed_cidades_pb.xlsx
+++ b/storage/app/xlsx/seed_cidades_pb.xlsx
@@ -23,7 +23,7 @@
     <t>AGUA BRANQUENSE</t>
   </si>
   <si>
-    <t>bc70cb9b-b3c9-4e1f-adc0-3998689b0a8f</t>
+    <t>ba9bb735-adea-46e0-b20c-8f08694e6841</t>
   </si>
   <si>
     <t>AGUIAR</t>
